--- a/data/BBC_matrices_reciprocal_filled_modified.xlsx
+++ b/data/BBC_matrices_reciprocal_filled_modified.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laec\Documents\proj\Corona\kontaktrater\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Morten/Library/Mobile Documents/com~apple~CloudDocs/Studie/Kandidat/1. semester/Stochastic Simulation/Projekt/project_code/PandemicModelling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F97276-7FEC-BC43-8AA4-AF131D2BB338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21900" windowHeight="10466" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conversational_home" sheetId="2" r:id="rId1"/>
@@ -23,12 +24,22 @@
     <sheet name="all_conversation" sheetId="9" r:id="rId9"/>
     <sheet name="all_physical" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="26">
   <si>
     <t>estimated_age_group</t>
   </si>
@@ -92,11 +103,26 @@
   <si>
     <t>10-12</t>
   </si>
+  <si>
+    <t>Population (millions 2018)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Weighted avg</t>
+  </si>
+  <si>
+    <t>Weighted</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -583,48 +609,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="21" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="31" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="32" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="33" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Advarselstekst" xfId="41" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Bemærk!" xfId="37" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Beregning" xfId="26" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Farve1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Farve2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Farve3" xfId="21" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Farve4" xfId="22" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Farve5" xfId="23" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Farve6" xfId="24" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Forklarende tekst" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="God" xfId="29" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Input" xfId="34" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="35" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Kontrollér celle" xfId="27" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="37" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="39" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Overskrift 1" xfId="30" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Overskrift 2" xfId="31" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Overskrift 3" xfId="32" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Overskrift 4" xfId="33" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Sammenkædet celle" xfId="35" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Titel" xfId="39" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Ugyldig" xfId="25" builtinId="27" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -930,20 +956,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="256" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1068,7 +1094,7 @@
         <v>1.3333333333333299E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1132,7 +1158,7 @@
         <v>1.9345238095238099E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,7 +1224,7 @@
         <v>3.1977193974944501E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1260,7 +1286,7 @@
         <v>4.4609149854650899E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1322,7 +1348,7 @@
         <v>5.0368472299942499E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1384,7 +1410,7 @@
         <v>4.6913814124707798E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1446,7 +1472,7 @@
         <v>4.6073092792153797E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1508,7 +1534,7 @@
         <v>2.5304067102822399E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1570,7 +1596,7 @@
         <v>2.12550338343554E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1632,7 +1658,7 @@
         <v>2.1485131192164001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1694,7 +1720,7 @@
         <v>2.6317144734062201E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1756,7 +1782,7 @@
         <v>5.2912658694186501E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1818,7 +1844,7 @@
         <v>7.0866608006407095E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1880,7 +1906,7 @@
         <v>6.0732186535125403E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1942,7 +1968,7 @@
         <v>4.3429254479391097E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2004,7 +2030,7 @@
         <v>7.4041174716623803E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -2066,7 +2092,7 @@
         <v>7.8076984664875101E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2128,7 +2154,7 @@
         <v>0.12791678179473201</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2196,18 +2222,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U22" sqref="U22:V23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="256" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2268,8 +2302,17 @@
       <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2330,8 +2373,19 @@
       <c r="T2" s="2">
         <v>1.7777777777777799E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U2" s="2">
+        <f>SUM(B2:T2)</f>
+        <v>2.1124160735228483</v>
+      </c>
+      <c r="V2" s="2">
+        <v>3.91</v>
+      </c>
+      <c r="W2">
+        <f>U2*V2</f>
+        <v>8.2595468474743381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2392,8 +2446,19 @@
       <c r="T3" s="2">
         <v>3.5555555555555597E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U20" si="0">SUM(B3:T3)</f>
+        <v>1.9982420838165511</v>
+      </c>
+      <c r="V3" s="2">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W20" si="1">U3*V3</f>
+        <v>8.2727222270005214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2454,8 +2519,19 @@
       <c r="T4" s="2">
         <v>2.2222222222222199E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1737583604952861</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="1"/>
+        <v>2.2653536357559023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2516,8 +2592,19 @@
       <c r="T5" s="2">
         <v>0.134463456608233</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U5" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8630654485416214</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>5.5257163156853295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2665,19 @@
       <c r="T6" s="2">
         <v>6.2361372434068099E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5018640402741275</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1.835</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>4.5909205139030238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2640,8 +2738,19 @@
       <c r="T7" s="2">
         <v>8.4508831548402899E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5460688983777486</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1.835</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>4.6720364285231684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2702,8 +2811,19 @@
       <c r="T8" s="2">
         <v>0.15794880301400999</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6895004876933521</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>4.4968448154232847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2764,8 +2884,19 @@
       <c r="T9" s="2">
         <v>0.121950229164384</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3980027422890884</v>
+      </c>
+      <c r="V9" s="2">
+        <v>2.508</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>6.0141908776610338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2826,8 +2957,19 @@
       <c r="T10" s="2">
         <v>9.1275006879342896E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U10" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5157807935603569</v>
+      </c>
+      <c r="V10" s="2">
+        <v>4.53</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>11.396486994828418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2888,8 +3030,19 @@
       <c r="T11" s="2">
         <v>7.3223228121126097E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U11" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9989006805235197</v>
+      </c>
+      <c r="V11" s="2">
+        <v>4.46</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>13.375097035134898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2950,8 +3103,19 @@
       <c r="T12" s="2">
         <v>7.8197329333900403E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U12" s="2">
+        <f t="shared" si="0"/>
+        <v>3.122452350563083</v>
+      </c>
+      <c r="V12" s="2">
+        <v>4.37</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>13.645116771960673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -3012,8 +3176,19 @@
       <c r="T13" s="2">
         <v>8.7556013052309506E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.238002096279041</v>
+      </c>
+      <c r="V13" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>12.919628364153374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -3074,8 +3249,19 @@
       <c r="T14" s="2">
         <v>0.12884597808259099</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5327995979720894</v>
+      </c>
+      <c r="V14" s="2">
+        <v>4.51</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>11.422926186854124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -3136,8 +3322,19 @@
       <c r="T15" s="2">
         <v>0.154968658912294</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4175335351200995</v>
+      </c>
+      <c r="V15" s="2">
+        <v>4.67</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>11.289881609010864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -3198,8 +3395,19 @@
       <c r="T16" s="2">
         <v>0.147330838865772</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U16" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2073641240108324</v>
+      </c>
+      <c r="V16" s="2">
+        <v>4.29</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>9.4695920920064705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -3260,8 +3468,19 @@
       <c r="T17" s="2">
         <v>0.191268621772304</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2397100050500431</v>
+      </c>
+      <c r="V17" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="1"/>
+        <v>8.2197357185336575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -3322,8 +3541,19 @@
       <c r="T18" s="2">
         <v>0.214538868655547</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2442045364868499</v>
+      </c>
+      <c r="V18" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>7.6302954240552898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3384,8 +3614,19 @@
       <c r="T19" s="2">
         <v>0.31826949644938202</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U19" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0858989992531738</v>
+      </c>
+      <c r="V19" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>6.779171747572815</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -3445,6 +3686,35 @@
       </c>
       <c r="T20" s="2">
         <v>0.32</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6065435658533114</v>
+      </c>
+      <c r="V20" s="2">
+        <v>5.51</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="1"/>
+        <v>8.8520550478517457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U22" t="s">
+        <v>22</v>
+      </c>
+      <c r="V22" s="2">
+        <f>SUM(V2:V20)</f>
+        <v>66.410000000000011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U23" t="s">
+        <v>23</v>
+      </c>
+      <c r="V23">
+        <f>SUM(W2:W20)/V22</f>
+        <v>2.3956831599667048</v>
       </c>
     </row>
   </sheetData>
@@ -3453,20 +3723,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="256" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3528,7 +3798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3590,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -3652,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -3714,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3776,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3838,7 +4108,7 @@
         <v>1.93993585063191E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3900,7 +4170,7 @@
         <v>3.86375934020253E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3962,7 +4232,7 @@
         <v>3.4961981681042698E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4024,7 +4294,7 @@
         <v>5.9371361189250002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4086,7 +4356,7 @@
         <v>6.2509418498974206E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -4148,7 +4418,7 @@
         <v>3.50494399144404E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -4210,7 +4480,7 @@
         <v>4.3704104826927499E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4272,7 +4542,7 @@
         <v>5.4290573720990498E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -4334,7 +4604,7 @@
         <v>3.9934866265529598E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -4396,7 +4666,7 @@
         <v>6.1067157710931901E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -4458,7 +4728,7 @@
         <v>3.80763805643375E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -4520,7 +4790,7 @@
         <v>4.5850325112885199E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -4582,7 +4852,7 @@
         <v>2.94989130281831E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -4644,7 +4914,7 @@
         <v>2.8539006796501998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -4712,20 +4982,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="256" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4787,7 +5057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4851,7 +5121,7 @@
         <v>1.48809523809524E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -4915,7 +5185,7 @@
         <v>2.9662698412698399E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -4980,7 +5250,7 @@
         <v>4.4444444444444401E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5042,7 +5312,7 @@
         <v>2.1908021132839899E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5104,7 +5374,7 @@
         <v>6.6311673372947402E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5167,7 +5437,7 @@
         <v>4.9047646541493101E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5229,7 +5499,7 @@
         <v>3.1783619710038799E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -5292,7 +5562,7 @@
         <v>3.6478173808741198E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -5354,7 +5624,7 @@
         <v>2.8806183640080299E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -5416,7 +5686,7 @@
         <v>8.8888888888888906E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -5478,7 +5748,7 @@
         <v>1.3333333333333299E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -5540,7 +5810,7 @@
         <v>7.9013988966303798E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -5602,7 +5872,7 @@
         <v>4.9220748656235297E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -5664,7 +5934,7 @@
         <v>6.8603330588172E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -5726,7 +5996,7 @@
         <v>1.13961275189068E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -5788,7 +6058,7 @@
         <v>4.4444444444444401E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -5851,7 +6121,7 @@
         <v>6.0122929667900896E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -5914,7 +6184,7 @@
         <v>7.58014148913574E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -5983,20 +6253,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="256" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6058,7 +6328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6122,7 +6392,7 @@
         <v>1.33928571428571E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -6185,7 +6455,7 @@
         <v>1.7777777777777799E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -6250,7 +6520,7 @@
         <v>2.2222222222222199E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -6312,7 +6582,7 @@
         <v>0.23368555875029201</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6374,7 +6644,7 @@
         <v>2.8711392242029302E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6436,7 +6706,7 @@
         <v>4.4828662168047498E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6498,7 +6768,7 @@
         <v>6.4483911806651903E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -6560,7 +6830,7 @@
         <v>9.3857638054733794E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -6622,7 +6892,7 @@
         <v>0.123950376850715</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -6684,7 +6954,7 @@
         <v>0.15536849947314901</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -6746,7 +7016,7 @@
         <v>0.16891223209672801</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -6808,7 +7078,7 @@
         <v>0.209209940962858</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -6870,7 +7140,7 @@
         <v>0.23805122355393399</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -6932,7 +7202,7 @@
         <v>0.25429871656068098</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -6994,7 +7264,7 @@
         <v>0.208007632175808</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -7056,7 +7326,7 @@
         <v>0.27367646581258998</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -7118,7 +7388,7 @@
         <v>0.372383466029094</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -7180,7 +7450,7 @@
         <v>0.45885199609077998</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -7249,20 +7519,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="256" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7324,7 +7594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7387,7 +7657,7 @@
         <v>4.4444444444444401E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -7450,7 +7720,7 @@
         <v>1.3333333333333299E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -7515,7 +7785,7 @@
         <v>8.8888888888888906E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -7577,7 +7847,7 @@
         <v>4.8260486710124201E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -7639,7 +7909,7 @@
         <v>3.6682992778531702E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7701,7 +7971,7 @@
         <v>3.3717551056936398E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -7763,7 +8033,7 @@
         <v>3.84502863767055E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -7825,7 +8095,7 @@
         <v>2.2075561785336002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -7887,7 +8157,7 @@
         <v>1.2715965231083501E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -7949,7 +8219,7 @@
         <v>1.6259615021951598E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -8011,7 +8281,7 @@
         <v>1.1230811074335901E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -8073,7 +8343,7 @@
         <v>1.8061185454333599E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -8135,7 +8405,7 @@
         <v>2.7198055034087301E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -8197,7 +8467,7 @@
         <v>4.8541086404659498E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -8259,7 +8529,7 @@
         <v>4.18883543601258E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -8321,7 +8591,7 @@
         <v>5.16267959442442E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -8383,7 +8653,7 @@
         <v>5.0262894497938297E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -8445,7 +8715,7 @@
         <v>0.132406616724074</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -8513,20 +8783,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="256" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8588,7 +8858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8651,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -8713,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -8776,7 +9046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -8839,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -8902,7 +9172,7 @@
         <v>3.5271560920580201E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -8967,7 +9237,7 @@
         <v>1.6552441445364999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -9029,7 +9299,7 @@
         <v>8.8994135188108697E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -9091,7 +9361,7 @@
         <v>7.2746691585788503E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -9153,7 +9423,7 @@
         <v>4.0225870607360201E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -9215,7 +9485,7 @@
         <v>3.0395979734321298E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -9277,7 +9547,7 @@
         <v>4.1252060635325702E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -9339,7 +9609,7 @@
         <v>3.6265553705507499E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -9401,7 +9671,7 @@
         <v>5.3315237801824303E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -9463,7 +9733,7 @@
         <v>3.9406169515125399E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -9525,7 +9795,7 @@
         <v>3.3289010671954E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -9587,7 +9857,7 @@
         <v>4.5661435928774502E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -9649,7 +9919,7 @@
         <v>2.1835877600432301E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -9712,7 +9982,7 @@
         <v>9.4978721038682708E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -9780,20 +10050,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="256" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9855,7 +10125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9921,7 +10191,7 @@
         <v>2.9761904761904799E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -9985,7 +10255,7 @@
         <v>4.4444444444444401E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -10051,7 +10321,7 @@
         <v>4.4444444444444401E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -10116,7 +10386,7 @@
         <v>1.4605347421893299E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -10178,7 +10448,7 @@
         <v>4.4444444444444401E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -10246,7 +10516,7 @@
         <v>3.7735890476016539E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -10314,7 +10584,7 @@
         <v>3.1027336507588668E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -10378,7 +10648,7 @@
         <v>2.4318782539160802E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -10442,7 +10712,7 @@
         <v>2.8806183640080299E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -10505,7 +10775,7 @@
         <v>5.7205599009338296E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -10570,7 +10840,7 @@
         <v>4.6241831361293649E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -10632,7 +10902,7 @@
         <v>3.5278063713249002E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -10694,7 +10964,7 @@
         <v>6.3684056157211797E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -10758,7 +11028,7 @@
         <v>8.8845309637746893E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -10821,7 +11091,7 @@
         <v>1.14006563118282E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -10886,7 +11156,7 @@
         <v>4.4444444444444401E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -10954,7 +11224,7 @@
         <v>4.4444444444444401E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -11023,7 +11293,7 @@
         <v>4.4444444444444401E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -11097,20 +11367,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="256" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11172,7 +11442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -11235,7 +11505,7 @@
         <v>1.3333333333333299E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -11298,7 +11568,7 @@
         <v>1.7777777777777799E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -11364,7 +11634,7 @@
         <v>8.8888888888888906E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -11426,7 +11696,7 @@
         <v>7.1597622476215206E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -11488,7 +11758,7 @@
         <v>1.77067791190339E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -11551,7 +11821,7 @@
         <v>3.4238839046101498E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -11613,7 +11883,7 @@
         <v>3.0504381449195799E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -11675,7 +11945,7 @@
         <v>2.46960975393434E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -11737,7 +12007,7 @@
         <v>3.8045109204498398E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -11799,7 +12069,7 @@
         <v>2.5995577374759798E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -11861,7 +12131,7 @@
         <v>2.5714457624238799E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -11923,7 +12193,7 @@
         <v>3.2876493255335898E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -11985,7 +12255,7 @@
         <v>4.7695844685106903E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -12047,7 +12317,7 @@
         <v>6.7021402992508999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -12109,7 +12379,7 @@
         <v>7.1013408202509704E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -12171,7 +12441,7 @@
         <v>8.9535945454840393E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -12233,7 +12503,7 @@
         <v>0.14244009655717699</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -12295,7 +12565,7 @@
         <v>0.171920563176995</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -12363,20 +12633,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:IV1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="256" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="21" width="10.83203125" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" customWidth="1"/>
+    <col min="23" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12437,8 +12709,17 @@
       <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -12499,8 +12780,19 @@
       <c r="T2" s="2">
         <v>1.3333333333333299E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U2" s="2">
+        <f>SUM(B2:T2)</f>
+        <v>0.90757527396566828</v>
+      </c>
+      <c r="V2" s="2">
+        <v>3.91</v>
+      </c>
+      <c r="W2">
+        <f>U2*V2</f>
+        <v>3.5486193212057633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -12561,8 +12853,19 @@
       <c r="T3" s="2">
         <v>1.7777777777777799E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U20" si="0">SUM(B3:T3)</f>
+        <v>2.3846997245833177</v>
+      </c>
+      <c r="V3" s="2">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W20" si="1">U3*V3</f>
+        <v>9.8726568597749349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -12623,8 +12926,19 @@
       <c r="T4" s="2">
         <v>2.66666666666667E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U4" s="2">
+        <f t="shared" si="0"/>
+        <v>2.350175272159265</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="1"/>
+        <v>4.5358382752673814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -12685,8 +12999,19 @@
       <c r="T5" s="2">
         <v>0.300202729737783</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U5" s="2">
+        <f t="shared" si="0"/>
+        <v>7.7315818162298475</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>14.921952905323606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -12747,8 +13072,19 @@
       <c r="T6" s="2">
         <v>0.10511039038558601</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U6" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5881067546668408</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1.835</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>15.759175894813653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -12809,8 +13145,19 @@
       <c r="T7" s="2">
         <v>0.130380069694781</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U7" s="2">
+        <f t="shared" si="0"/>
+        <v>9.3599633707319754</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1.835</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>17.175532785293175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -12871,8 +13218,19 @@
       <c r="T8" s="2">
         <v>0.14869734825085201</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U8" s="2">
+        <f t="shared" si="0"/>
+        <v>10.522080428256626</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>17.592918476045078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -12933,8 +13291,19 @@
       <c r="T9" s="2">
         <v>0.18218088372767999</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U9" s="2">
+        <f t="shared" si="0"/>
+        <v>9.2510624438496762</v>
+      </c>
+      <c r="V9" s="2">
+        <v>2.508</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>23.201664609174987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -12995,8 +13364,19 @@
       <c r="T10" s="2">
         <v>0.208002891020445</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U10" s="2">
+        <f t="shared" si="0"/>
+        <v>9.4750050170060298</v>
+      </c>
+      <c r="V10" s="2">
+        <v>4.53</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>42.921772727037315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -13057,8 +13437,19 @@
       <c r="T11" s="2">
         <v>0.220791959468643</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U11" s="2">
+        <f t="shared" si="0"/>
+        <v>9.8097067104198548</v>
+      </c>
+      <c r="V11" s="2">
+        <v>4.46</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>43.751291928472554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -13119,8 +13510,19 @@
       <c r="T12" s="2">
         <v>0.25226681499105102</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U12" s="2">
+        <f t="shared" si="0"/>
+        <v>9.555815290686569</v>
+      </c>
+      <c r="V12" s="2">
+        <v>4.37</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>41.75891282030031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -13181,8 +13583,19 @@
       <c r="T13" s="2">
         <v>0.32431457227466498</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U13" s="2">
+        <f t="shared" si="0"/>
+        <v>10.005912215524036</v>
+      </c>
+      <c r="V13" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>39.923589739940908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -13243,8 +13656,19 @@
       <c r="T14" s="2">
         <v>0.35377477269149399</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U14" s="2">
+        <f t="shared" si="0"/>
+        <v>7.8477375636335465</v>
+      </c>
+      <c r="V14" s="2">
+        <v>4.51</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>35.393296411987293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -13305,8 +13729,19 @@
       <c r="T15" s="2">
         <v>0.38295839386555602</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U15" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2646234677948538</v>
+      </c>
+      <c r="V15" s="2">
+        <v>4.67</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>38.59579159460197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -13367,8 +13802,19 @@
       <c r="T16" s="2">
         <v>0.30090939473844303</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U16" s="2">
+        <f t="shared" si="0"/>
+        <v>6.7420785936506977</v>
+      </c>
+      <c r="V16" s="2">
+        <v>4.29</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>28.923517166761492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -13429,8 +13875,19 @@
       <c r="T17" s="2">
         <v>0.39801241008654298</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U17" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4940597545875622</v>
+      </c>
+      <c r="V17" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="1"/>
+        <v>23.833199299336354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -13491,8 +13948,19 @@
       <c r="T18" s="2">
         <v>0.47995936372215198</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U18" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5546420585994749</v>
+      </c>
+      <c r="V18" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>18.885782999238213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -13553,8 +14021,19 @@
       <c r="T19" s="2">
         <v>0.62288792617114896</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U19" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7950088396741766</v>
+      </c>
+      <c r="V19" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>15.583778728941073</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -13614,6 +14093,35 @@
       </c>
       <c r="T20" s="2">
         <v>0.60888888888888903</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4728896517972485</v>
+      </c>
+      <c r="V20" s="2">
+        <v>5.51</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="1"/>
+        <v>19.135621981402839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U22" t="s">
+        <v>22</v>
+      </c>
+      <c r="V22" s="2">
+        <f>SUM(V2:V20)</f>
+        <v>66.410000000000011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U23" t="s">
+        <v>23</v>
+      </c>
+      <c r="V23">
+        <f>SUM(W2:W20)/V22</f>
+        <v>6.8561197790230208</v>
       </c>
     </row>
   </sheetData>
